--- a/sensitivity analysis/outputs/S4/S4_start_immunity.xlsx
+++ b/sensitivity analysis/outputs/S4/S4_start_immunity.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,22 +377,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>overall_death_indep</t>
+          <t>immunity_all</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>infection_death_indep</t>
+          <t>immunity_by_infection</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>vaccination_death_indep</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>scenario</t>
+          <t>immunity_by_vaccination</t>
         </is>
       </c>
     </row>
@@ -409,15 +404,10 @@
         <v>60.09677859941147</v>
       </c>
       <c r="D2">
-        <v>15.28329258991335</v>
+        <v>27.69389020031914</v>
       </c>
       <c r="E2">
-        <v>32.40288839909233</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>44.81348600949811</v>
       </c>
     </row>
     <row r="3">
@@ -433,15 +423,10 @@
         <v>54.35185579788229</v>
       </c>
       <c r="D3">
-        <v>24.28638728296879</v>
+        <v>34.72731820352275</v>
       </c>
       <c r="E3">
-        <v>19.62453759435954</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>30.0654685149135</v>
       </c>
     </row>
     <row r="4">
@@ -457,15 +442,10 @@
         <v>54.90728602237894</v>
       </c>
       <c r="D4">
-        <v>4.127353610350963</v>
+        <v>8.385509838998209</v>
       </c>
       <c r="E4">
-        <v>46.52177618338073</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>50.77993241202797</v>
       </c>
     </row>
     <row r="5">
@@ -481,15 +461,10 @@
         <v>52.85910386589202</v>
       </c>
       <c r="D5">
-        <v>24.93685408036846</v>
+        <v>34.59715932609676</v>
       </c>
       <c r="E5">
-        <v>18.26194453979527</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>27.92224978552357</v>
       </c>
     </row>
     <row r="6">
@@ -505,15 +480,10 @@
         <v>56.0543295710871</v>
       </c>
       <c r="D6">
-        <v>15.25779490933211</v>
+        <v>25.77179363093073</v>
       </c>
       <c r="E6">
-        <v>30.28253594015636</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>40.79653466175498</v>
       </c>
     </row>
     <row r="7">
@@ -529,15 +499,10 @@
         <v>59.83489716839996</v>
       </c>
       <c r="D7">
-        <v>13.73748932192149</v>
+        <v>25.48576751707107</v>
       </c>
       <c r="E7">
-        <v>34.34912965132889</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>46.09740784647847</v>
       </c>
     </row>
     <row r="8">
@@ -553,15 +518,10 @@
         <v>63.00573915246393</v>
       </c>
       <c r="D8">
-        <v>19.83238762418513</v>
+        <v>34.89980169084647</v>
       </c>
       <c r="E8">
-        <v>28.10593746161747</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>43.17335152827879</v>
       </c>
     </row>
     <row r="9">
@@ -577,15 +537,10 @@
         <v>62.71046615442125</v>
       </c>
       <c r="D9">
-        <v>21.44952553328276</v>
+        <v>36.51663094387552</v>
       </c>
       <c r="E9">
-        <v>26.19383521054573</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>41.2609406211385</v>
       </c>
     </row>
     <row r="10">
@@ -601,15 +556,10 @@
         <v>50.32453667343572</v>
       </c>
       <c r="D10">
-        <v>17.26282115409738</v>
+        <v>25.78915980298924</v>
       </c>
       <c r="E10">
-        <v>24.53537687044649</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>33.06171551933834</v>
       </c>
     </row>
     <row r="11">
@@ -625,15 +575,10 @@
         <v>58.3409423039931</v>
       </c>
       <c r="D11">
-        <v>9.273453459204802</v>
+        <v>18.20733603914577</v>
       </c>
       <c r="E11">
-        <v>40.13360626484734</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>49.06748884478831</v>
       </c>
     </row>
     <row r="12">
@@ -649,15 +594,10 @@
         <v>57.11297112331996</v>
       </c>
       <c r="D12">
-        <v>10.32532374373445</v>
+        <v>19.40399782244024</v>
       </c>
       <c r="E12">
-        <v>37.70897330087971</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>46.7876473795855</v>
       </c>
     </row>
     <row r="13">
@@ -673,15 +613,10 @@
         <v>50.19706961684325</v>
       </c>
       <c r="D13">
-        <v>19.08284622715518</v>
+        <v>27.70215734825373</v>
       </c>
       <c r="E13">
-        <v>22.49491226858952</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>31.11422338968807</v>
       </c>
     </row>
     <row r="14">
@@ -697,15 +632,10 @@
         <v>44.23370037851706</v>
       </c>
       <c r="D14">
-        <v>13.45197581436838</v>
+        <v>19.43413893175528</v>
       </c>
       <c r="E14">
-        <v>24.79956144676179</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>30.78172456414869</v>
       </c>
     </row>
     <row r="15">
@@ -721,15 +651,10 @@
         <v>53.46371273393544</v>
       </c>
       <c r="D15">
-        <v>21.27760461013339</v>
+        <v>31.37646877571649</v>
       </c>
       <c r="E15">
-        <v>22.08724395821896</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>32.18610812380206</v>
       </c>
     </row>
     <row r="16">
@@ -745,15 +670,10 @@
         <v>39.99567496110547</v>
       </c>
       <c r="D16">
-        <v>7.923782017796782</v>
+        <v>11.66495337663947</v>
       </c>
       <c r="E16">
-        <v>28.33072158446601</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>32.0718929433087</v>
       </c>
     </row>
     <row r="17">
@@ -769,15 +689,10 @@
         <v>48.03744406823141</v>
       </c>
       <c r="D17">
-        <v>7.405181591223017</v>
+        <v>12.4734104754374</v>
       </c>
       <c r="E17">
-        <v>35.56403359279401</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>40.6322624770084</v>
       </c>
     </row>
     <row r="18">
@@ -793,15 +708,10 @@
         <v>51.45090338090152</v>
       </c>
       <c r="D18">
-        <v>13.45712360593829</v>
+        <v>21.70286070832712</v>
       </c>
       <c r="E18">
-        <v>29.7480426725744</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.99377977496323</v>
       </c>
     </row>
     <row r="19">
@@ -817,15 +727,10 @@
         <v>53.74724349290162</v>
       </c>
       <c r="D19">
-        <v>19.97541772140892</v>
+        <v>30.16151049625446</v>
       </c>
       <c r="E19">
-        <v>23.58573299664717</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>33.77182577149271</v>
       </c>
     </row>
     <row r="20">
@@ -841,15 +746,10 @@
         <v>59.26141862385156</v>
       </c>
       <c r="D20">
-        <v>9.81135070352013</v>
+        <v>19.40922628354292</v>
       </c>
       <c r="E20">
-        <v>39.85219234030865</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>49.45006792033143</v>
       </c>
     </row>
     <row r="21">
@@ -865,15 +765,10 @@
         <v>45.63604275707407</v>
       </c>
       <c r="D21">
-        <v>14.84745520768153</v>
+        <v>21.45232221387965</v>
       </c>
       <c r="E21">
-        <v>24.18372054319442</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>30.78858754939254</v>
       </c>
     </row>
     <row r="22">
@@ -889,15 +784,10 @@
         <v>71.25450138403646</v>
       </c>
       <c r="D22">
-        <v>24.32598788790096</v>
+        <v>45.83626630870725</v>
       </c>
       <c r="E22">
-        <v>25.4182350753292</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>46.92851349613549</v>
       </c>
     </row>
     <row r="23">
@@ -913,15 +803,10 @@
         <v>52.29133404928294</v>
       </c>
       <c r="D23">
-        <v>17.38220585368126</v>
+        <v>26.7045214971398</v>
       </c>
       <c r="E23">
-        <v>25.58681255214314</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>34.90912819560169</v>
       </c>
     </row>
     <row r="24">
@@ -937,15 +822,10 @@
         <v>58.51544049126704</v>
       </c>
       <c r="D24">
-        <v>23.87776047949536</v>
+        <v>36.53138457110415</v>
       </c>
       <c r="E24">
-        <v>21.98405592016289</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>34.63768001177167</v>
       </c>
     </row>
     <row r="25">
@@ -961,15 +841,10 @@
         <v>58.63381125584195</v>
       </c>
       <c r="D25">
-        <v>29.93268545443281</v>
+        <v>41.98198890358411</v>
       </c>
       <c r="E25">
-        <v>16.65182235225785</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>28.70112580140914</v>
       </c>
     </row>
     <row r="26">
@@ -985,15 +860,10 @@
         <v>46.04851606916315</v>
       </c>
       <c r="D26">
-        <v>12.83147344977971</v>
+        <v>19.21369456079821</v>
       </c>
       <c r="E26">
-        <v>26.83482150836494</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>33.21704261938344</v>
       </c>
     </row>
     <row r="27">
@@ -1009,15 +879,10 @@
         <v>32.89760915799037</v>
       </c>
       <c r="D27">
-        <v>11.68995353040402</v>
+        <v>14.83640780524465</v>
       </c>
       <c r="E27">
-        <v>18.06120135274572</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>21.20765562758635</v>
       </c>
     </row>
     <row r="28">
@@ -1033,15 +898,10 @@
         <v>42.20558051940657</v>
       </c>
       <c r="D28">
-        <v>6.365044789404525</v>
+        <v>9.920663867483272</v>
       </c>
       <c r="E28">
-        <v>32.2849166519233</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>35.84053573000205</v>
       </c>
     </row>
     <row r="29">
@@ -1057,15 +917,10 @@
         <v>65.52539421705407</v>
       </c>
       <c r="D29">
-        <v>1.689607889809017</v>
+        <v>4.672043764308133</v>
       </c>
       <c r="E29">
-        <v>60.85335045274592</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>63.83578632724505</v>
       </c>
     </row>
     <row r="30">
@@ -1081,15 +936,10 @@
         <v>43.84203839178</v>
       </c>
       <c r="D30">
-        <v>12.83645026082872</v>
+        <v>18.60505787800943</v>
       </c>
       <c r="E30">
-        <v>25.23698051377058</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>31.00558813095128</v>
       </c>
     </row>
     <row r="31">
@@ -1105,15 +955,10 @@
         <v>48.13848356679668</v>
       </c>
       <c r="D31">
-        <v>9.099660306976428</v>
+        <v>14.92697614050289</v>
       </c>
       <c r="E31">
-        <v>33.21150742629379</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>39.03882325982024</v>
       </c>
     </row>
     <row r="32">
@@ -1129,15 +974,10 @@
         <v>55.60033742604267</v>
       </c>
       <c r="D32">
-        <v>27.01780457990021</v>
+        <v>37.83080758338104</v>
       </c>
       <c r="E32">
-        <v>17.76952984266162</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>28.58253284614246</v>
       </c>
     </row>
     <row r="33">
@@ -1153,15 +993,10 @@
         <v>52.78010378589236</v>
       </c>
       <c r="D33">
-        <v>6.311789403634724</v>
+        <v>11.79075407545688</v>
       </c>
       <c r="E33">
-        <v>40.98934971043548</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>46.46831438225764</v>
       </c>
     </row>
     <row r="34">
@@ -1177,15 +1012,10 @@
         <v>54.6988009830955</v>
       </c>
       <c r="D34">
-        <v>22.6295579896198</v>
+        <v>33.31268336586677</v>
       </c>
       <c r="E34">
-        <v>21.38611761722872</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>32.06924299347569</v>
       </c>
     </row>
     <row r="35">
@@ -1201,15 +1031,10 @@
         <v>51.44294143406693</v>
       </c>
       <c r="D35">
-        <v>10.36486963033549</v>
+        <v>17.59085275656659</v>
       </c>
       <c r="E35">
-        <v>33.85208867750035</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>41.07807180373145</v>
       </c>
     </row>
     <row r="36">
@@ -1225,15 +1050,10 @@
         <v>40.78247769995399</v>
       </c>
       <c r="D36">
-        <v>8.654012925372005</v>
+        <v>12.75057783300452</v>
       </c>
       <c r="E36">
-        <v>28.03189986694947</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>32.12846477458199</v>
       </c>
     </row>
     <row r="37">
@@ -1249,15 +1069,10 @@
         <v>53.04388839577336</v>
       </c>
       <c r="D37">
-        <v>21.24664378687703</v>
+        <v>31.15217803890725</v>
       </c>
       <c r="E37">
-        <v>21.89171035686611</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>31.79724460889633</v>
       </c>
     </row>
     <row r="38">
@@ -1273,15 +1088,10 @@
         <v>44.66518609544561</v>
       </c>
       <c r="D38">
-        <v>12.68689847472669</v>
+        <v>18.65124830140416</v>
       </c>
       <c r="E38">
-        <v>26.01393779404144</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>31.97828762071892</v>
       </c>
     </row>
     <row r="39">
@@ -1297,15 +1107,10 @@
         <v>56.6492214807371</v>
       </c>
       <c r="D39">
-        <v>24.555434821226</v>
+        <v>36.16080710921468</v>
       </c>
       <c r="E39">
-        <v>20.48841437152242</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>32.0937866595111</v>
       </c>
     </row>
     <row r="40">
@@ -1321,15 +1126,10 @@
         <v>56.54990392091769</v>
       </c>
       <c r="D40">
-        <v>12.65824948056524</v>
+        <v>22.56036843415483</v>
       </c>
       <c r="E40">
-        <v>33.98953548676285</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>43.89165444035245</v>
       </c>
     </row>
     <row r="41">
@@ -1345,15 +1145,10 @@
         <v>59.09344273175338</v>
       </c>
       <c r="D41">
-        <v>22.13296303170099</v>
+        <v>35.10966283751906</v>
       </c>
       <c r="E41">
-        <v>23.98377989423432</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.9604797000524</v>
       </c>
     </row>
     <row r="42">
@@ -1369,15 +1164,10 @@
         <v>53.85027358148905</v>
       </c>
       <c r="D42">
-        <v>12.49395402609623</v>
+        <v>21.30486001453744</v>
       </c>
       <c r="E42">
-        <v>32.54541356695161</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>41.35631955539282</v>
       </c>
     </row>
     <row r="43">
@@ -1393,15 +1183,10 @@
         <v>56.99672966015652</v>
       </c>
       <c r="D43">
-        <v>23.01603044926683</v>
+        <v>34.86257832809895</v>
       </c>
       <c r="E43">
-        <v>22.13415133205758</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>33.9806992108897</v>
       </c>
     </row>
     <row r="44">
@@ -1417,15 +1202,10 @@
         <v>42.13767370050179</v>
       </c>
       <c r="D44">
-        <v>15.53604265686593</v>
+        <v>21.16674100224519</v>
       </c>
       <c r="E44">
-        <v>20.97093269825662</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>26.60163104363588</v>
       </c>
     </row>
     <row r="45">
@@ -1441,15 +1221,10 @@
         <v>64.5983670357294</v>
       </c>
       <c r="D45">
-        <v>16.85513008235853</v>
+        <v>32.25444727090838</v>
       </c>
       <c r="E45">
-        <v>32.34391976482102</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>47.74323695337087</v>
       </c>
     </row>
     <row r="46">
@@ -1465,15 +1240,10 @@
         <v>60.58101075377479</v>
       </c>
       <c r="D46">
-        <v>12.60717813380658</v>
+        <v>24.23237914435604</v>
       </c>
       <c r="E46">
-        <v>36.34863160941875</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>47.97383261996821</v>
       </c>
     </row>
     <row r="47">
@@ -1489,15 +1259,10 @@
         <v>61.93748993536639</v>
       </c>
       <c r="D47">
-        <v>27.16422356882216</v>
+        <v>41.64584374479427</v>
       </c>
       <c r="E47">
-        <v>20.29164619057212</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>34.77326636654423</v>
       </c>
     </row>
     <row r="48">
@@ -1513,15 +1278,10 @@
         <v>34.706493075856</v>
       </c>
       <c r="D48">
-        <v>12.93733579165228</v>
+        <v>16.537385182788</v>
       </c>
       <c r="E48">
-        <v>18.169107893068</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>21.76915728420372</v>
       </c>
     </row>
     <row r="49">
@@ -1537,15 +1297,10 @@
         <v>68.77607548676467</v>
       </c>
       <c r="D49">
-        <v>15.00855031333822</v>
+        <v>32.46322064660833</v>
       </c>
       <c r="E49">
-        <v>36.31285484015634</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>53.76752517342644</v>
       </c>
     </row>
     <row r="50">
@@ -1561,15 +1316,10 @@
         <v>44.63173089535205</v>
       </c>
       <c r="D50">
-        <v>14.36157430939868</v>
+        <v>20.59602260128642</v>
       </c>
       <c r="E50">
-        <v>24.03570829406564</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>30.27015658595338</v>
       </c>
     </row>
     <row r="51">
@@ -1585,15 +1335,10 @@
         <v>52.40222343047693</v>
       </c>
       <c r="D51">
-        <v>12.48624378002568</v>
+        <v>20.78130542427902</v>
       </c>
       <c r="E51">
-        <v>31.62091800619792</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>39.91597965045125</v>
       </c>
     </row>
     <row r="52">
@@ -1609,15 +1354,10 @@
         <v>44.31563705239538</v>
       </c>
       <c r="D52">
-        <v>12.92048993204934</v>
+        <v>18.83320113624375</v>
       </c>
       <c r="E52">
-        <v>25.48243591615163</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>31.39514712034604</v>
       </c>
     </row>
     <row r="53">
@@ -1633,15 +1373,10 @@
         <v>70.64236432416131</v>
       </c>
       <c r="D53">
-        <v>30.94247032794828</v>
+        <v>51.3141226086817</v>
       </c>
       <c r="E53">
-        <v>19.32824171547962</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>39.69989399621305</v>
       </c>
     </row>
     <row r="54">
@@ -1657,15 +1392,10 @@
         <v>50.16690620026842</v>
       </c>
       <c r="D54">
-        <v>13.33696664224993</v>
+        <v>21.1127970258937</v>
       </c>
       <c r="E54">
-        <v>29.05410917437471</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.82993955801849</v>
       </c>
     </row>
     <row r="55">
@@ -1681,15 +1411,10 @@
         <v>59.0536511343016</v>
       </c>
       <c r="D55">
-        <v>22.54584304163056</v>
+        <v>35.5096309709038</v>
       </c>
       <c r="E55">
-        <v>23.54402016339781</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.50780809267105</v>
       </c>
     </row>
     <row r="56">
@@ -1705,15 +1430,10 @@
         <v>52.55147016886444</v>
       </c>
       <c r="D56">
-        <v>11.20985237085962</v>
+        <v>19.11040153180073</v>
       </c>
       <c r="E56">
-        <v>33.44106863706371</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>41.34161779800483</v>
       </c>
     </row>
     <row r="57">
@@ -1729,15 +1449,10 @@
         <v>65.21197586619456</v>
       </c>
       <c r="D57">
-        <v>12.83888974563333</v>
+        <v>26.95721536384507</v>
       </c>
       <c r="E57">
-        <v>38.25476050234948</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>52.37308612056123</v>
       </c>
     </row>
     <row r="58">
@@ -1753,15 +1468,10 @@
         <v>63.61514826925677</v>
       </c>
       <c r="D58">
-        <v>16.72106697742095</v>
+        <v>31.48625875264324</v>
       </c>
       <c r="E58">
-        <v>32.12888951661352</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>46.89408129183581</v>
       </c>
     </row>
     <row r="59">
@@ -1777,15 +1487,10 @@
         <v>55.93791803992435</v>
       </c>
       <c r="D59">
-        <v>19.7706342773595</v>
+        <v>30.97257244047038</v>
       </c>
       <c r="E59">
-        <v>24.96534559945397</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.16728376256484</v>
       </c>
     </row>
     <row r="60">
@@ -1801,15 +1506,10 @@
         <v>53.08372025034972</v>
       </c>
       <c r="D60">
-        <v>15.21777016821596</v>
+        <v>24.49183690477609</v>
       </c>
       <c r="E60">
-        <v>28.59188334557364</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.86595008213377</v>
       </c>
     </row>
     <row r="61">
@@ -1825,15 +1525,10 @@
         <v>45.2178495573755</v>
       </c>
       <c r="D61">
-        <v>8.941659733268716</v>
+        <v>14.03189750987513</v>
       </c>
       <c r="E61">
-        <v>31.18595204750037</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.27618982410679</v>
       </c>
     </row>
     <row r="62">
@@ -1849,15 +1544,10 @@
         <v>49.29121199071066</v>
       </c>
       <c r="D62">
-        <v>11.47748137926223</v>
+        <v>18.4566166970859</v>
       </c>
       <c r="E62">
-        <v>30.83459529362474</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.81373061144841</v>
       </c>
     </row>
     <row r="63">
@@ -1873,15 +1563,10 @@
         <v>68.3101838455906</v>
       </c>
       <c r="D63">
-        <v>38.35773499435611</v>
+        <v>54.75956598809967</v>
       </c>
       <c r="E63">
-        <v>13.55061785749093</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>29.95244885123448</v>
       </c>
     </row>
     <row r="64">
@@ -1897,15 +1582,10 @@
         <v>61.18851333552958</v>
       </c>
       <c r="D64">
-        <v>17.30235384928987</v>
+        <v>30.83437827615269</v>
       </c>
       <c r="E64">
-        <v>30.35413505937689</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>43.88615948623971</v>
       </c>
     </row>
     <row r="65">
@@ -1921,15 +1601,10 @@
         <v>56.73872878860331</v>
       </c>
       <c r="D65">
-        <v>21.04173018222338</v>
+        <v>32.72278078191085</v>
       </c>
       <c r="E65">
-        <v>24.01594800669247</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>35.69699860637994</v>
       </c>
     </row>
     <row r="66">
@@ -1945,15 +1620,10 @@
         <v>49.8798098176855</v>
       </c>
       <c r="D66">
-        <v>6.756413711189096</v>
+        <v>11.87907372922596</v>
       </c>
       <c r="E66">
-        <v>38.00073608845955</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>43.12339610649641</v>
       </c>
     </row>
     <row r="67">
@@ -1969,15 +1639,10 @@
         <v>67.19265126493438</v>
       </c>
       <c r="D67">
-        <v>30.06778550420652</v>
+        <v>47.82142554126911</v>
       </c>
       <c r="E67">
-        <v>19.37122572366528</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.12486576072786</v>
       </c>
     </row>
     <row r="68">
@@ -1993,15 +1658,10 @@
         <v>27.94236799607925</v>
       </c>
       <c r="D68">
-        <v>9.814754054148517</v>
+        <v>11.98786859245466</v>
       </c>
       <c r="E68">
-        <v>15.95449940362458</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>18.12761394193073</v>
       </c>
     </row>
     <row r="69">
@@ -2017,15 +1677,10 @@
         <v>68.6090615154659</v>
       </c>
       <c r="D69">
-        <v>3.814326945802141</v>
+        <v>10.8345354002511</v>
       </c>
       <c r="E69">
-        <v>57.7745261152148</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>64.79473456966376</v>
       </c>
     </row>
     <row r="70">
@@ -2041,15 +1696,10 @@
         <v>55.09707612501155</v>
       </c>
       <c r="D70">
-        <v>9.169676606154601</v>
+        <v>16.95808325207584</v>
       </c>
       <c r="E70">
-        <v>38.1389928729357</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>45.92739951885694</v>
       </c>
     </row>
     <row r="71">
@@ -2065,15 +1715,10 @@
         <v>58.59677087489985</v>
       </c>
       <c r="D71">
-        <v>21.5793803815946</v>
+        <v>34.26244252280595</v>
       </c>
       <c r="E71">
-        <v>24.33432835209392</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.01739049330526</v>
       </c>
     </row>
     <row r="72">
@@ -2089,15 +1734,10 @@
         <v>50.27242820827072</v>
       </c>
       <c r="D72">
-        <v>10.79045307925005</v>
+        <v>17.83014746805538</v>
       </c>
       <c r="E72">
-        <v>32.44228074021534</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>39.48197512902068</v>
       </c>
     </row>
     <row r="73">
@@ -2113,15 +1753,10 @@
         <v>45.29750885040933</v>
       </c>
       <c r="D73">
-        <v>8.718107361645369</v>
+        <v>13.74649178074346</v>
       </c>
       <c r="E73">
-        <v>31.55101706966588</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.57940148876396</v>
       </c>
     </row>
     <row r="74">
@@ -2137,15 +1772,10 @@
         <v>56.98754260682492</v>
       </c>
       <c r="D74">
-        <v>16.85454879686849</v>
+        <v>28.15331827912842</v>
       </c>
       <c r="E74">
-        <v>28.8342243276965</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>40.13299380995644</v>
       </c>
     </row>
     <row r="75">
@@ -2161,15 +1791,10 @@
         <v>44.47232117551704</v>
       </c>
       <c r="D75">
-        <v>5.23937715746321</v>
+        <v>8.622068442841503</v>
       </c>
       <c r="E75">
-        <v>35.85025273267554</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>39.23294401805383</v>
       </c>
     </row>
     <row r="76">
@@ -2185,15 +1810,10 @@
         <v>51.92148609152294</v>
       </c>
       <c r="D76">
-        <v>14.52374458478364</v>
+        <v>23.20003292907899</v>
       </c>
       <c r="E76">
-        <v>28.72145316244395</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.39774150673931</v>
       </c>
     </row>
     <row r="77">
@@ -2209,15 +1829,10 @@
         <v>48.00546859902241</v>
       </c>
       <c r="D77">
-        <v>17.47421656897248</v>
+        <v>25.15406867060747</v>
       </c>
       <c r="E77">
-        <v>22.85139992841493</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>30.53125203004993</v>
       </c>
     </row>
     <row r="78">
@@ -2233,15 +1848,10 @@
         <v>54.89581437439702</v>
       </c>
       <c r="D78">
-        <v>23.43311952410917</v>
+        <v>34.19031354227033</v>
       </c>
       <c r="E78">
-        <v>20.70550083212668</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>31.46269485028784</v>
       </c>
     </row>
     <row r="79">
@@ -2257,15 +1867,10 @@
         <v>46.00878616357493</v>
       </c>
       <c r="D79">
-        <v>25.16456347989616</v>
+        <v>31.79118989550678</v>
       </c>
       <c r="E79">
-        <v>14.21759626806816</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>20.84422268367878</v>
       </c>
     </row>
     <row r="80">
@@ -2281,15 +1886,10 @@
         <v>57.67374034156013</v>
       </c>
       <c r="D80">
-        <v>19.85025595612199</v>
+        <v>31.92564871144535</v>
       </c>
       <c r="E80">
-        <v>25.74809163011478</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.82348438543815</v>
       </c>
     </row>
     <row r="81">
@@ -2305,15 +1905,10 @@
         <v>49.88502579334346</v>
       </c>
       <c r="D81">
-        <v>25.93631969811521</v>
+        <v>34.10371916957992</v>
       </c>
       <c r="E81">
-        <v>15.78130662376353</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>23.94870609522823</v>
       </c>
     </row>
     <row r="82">
@@ -2329,15 +1924,10 @@
         <v>65.41345804674624</v>
       </c>
       <c r="D82">
-        <v>37.4324927882887</v>
+        <v>51.97583239295578</v>
       </c>
       <c r="E82">
-        <v>13.43762565379047</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>27.98096525845754</v>
       </c>
     </row>
     <row r="83">
@@ -2353,15 +1943,10 @@
         <v>51.98571113930834</v>
       </c>
       <c r="D83">
-        <v>18.59123481781985</v>
+        <v>27.91245198754862</v>
       </c>
       <c r="E83">
-        <v>24.07325915175972</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>33.39447632148848</v>
       </c>
     </row>
     <row r="84">
@@ -2377,15 +1962,10 @@
         <v>57.51061548981019</v>
       </c>
       <c r="D84">
-        <v>26.70875778173853</v>
+        <v>38.59750695193734</v>
       </c>
       <c r="E84">
-        <v>18.91310853787286</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>30.80185770807167</v>
       </c>
     </row>
     <row r="85">
@@ -2401,15 +1981,10 @@
         <v>53.24444804974326</v>
       </c>
       <c r="D85">
-        <v>25.7015986905353</v>
+        <v>35.47144548638347</v>
       </c>
       <c r="E85">
-        <v>17.77300256335979</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>27.54284935920796</v>
       </c>
     </row>
     <row r="86">
@@ -2425,15 +2000,10 @@
         <v>48.0937041132976</v>
       </c>
       <c r="D86">
-        <v>19.08525815488434</v>
+        <v>26.88384331424021</v>
       </c>
       <c r="E86">
-        <v>21.2098607990574</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>29.00844595841327</v>
       </c>
     </row>
     <row r="87">
@@ -2449,15 +2019,10 @@
         <v>59.43686184660532</v>
       </c>
       <c r="D87">
-        <v>23.1546917633372</v>
+        <v>36.33942303684284</v>
       </c>
       <c r="E87">
-        <v>23.09743880976249</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.28217008326812</v>
       </c>
     </row>
     <row r="88">
@@ -2473,15 +2038,10 @@
         <v>49.71567245763492</v>
       </c>
       <c r="D88">
-        <v>17.56913467778078</v>
+        <v>25.89276081562196</v>
       </c>
       <c r="E88">
-        <v>23.82291164201295</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>32.14653777985414</v>
       </c>
     </row>
     <row r="89">
@@ -2497,15 +2057,10 @@
         <v>58.24146396445622</v>
       </c>
       <c r="D89">
-        <v>9.020745858263286</v>
+        <v>17.76461880088823</v>
       </c>
       <c r="E89">
-        <v>40.47684516356798</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>49.22071810619293</v>
       </c>
     </row>
     <row r="90">
@@ -2521,15 +2076,10 @@
         <v>54.74008456439865</v>
       </c>
       <c r="D90">
-        <v>16.14983601627166</v>
+        <v>26.29848783694937</v>
       </c>
       <c r="E90">
-        <v>28.44159672744928</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>38.59024854812698</v>
       </c>
     </row>
     <row r="91">
@@ -2545,15 +2095,10 @@
         <v>48.08394002743759</v>
       </c>
       <c r="D91">
-        <v>9.244222031605943</v>
+        <v>15.11474723248645</v>
       </c>
       <c r="E91">
-        <v>32.96919279495113</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>38.83971799583165</v>
       </c>
     </row>
     <row r="92">
@@ -2569,15 +2114,10 @@
         <v>60.70053407094606</v>
       </c>
       <c r="D92">
-        <v>18.05152803591834</v>
+        <v>31.47552777715326</v>
       </c>
       <c r="E92">
-        <v>29.2250062937928</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>42.64900603502772</v>
       </c>
     </row>
     <row r="93">
@@ -2593,15 +2133,10 @@
         <v>54.49307806247715</v>
       </c>
       <c r="D93">
-        <v>5.49751779269587</v>
+        <v>10.77850834510538</v>
       </c>
       <c r="E93">
-        <v>43.71456971737177</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>48.99556026978128</v>
       </c>
     </row>
     <row r="94">
@@ -2617,15 +2152,10 @@
         <v>55.5806357955312</v>
       </c>
       <c r="D94">
-        <v>11.71934719134485</v>
+        <v>20.87569682302821</v>
       </c>
       <c r="E94">
-        <v>34.70493897250299</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>43.86128860418635</v>
       </c>
     </row>
     <row r="95">
@@ -2641,15 +2171,10 @@
         <v>64.34546018795345</v>
       </c>
       <c r="D95">
-        <v>26.44460507939532</v>
+        <v>42.58449150245828</v>
       </c>
       <c r="E95">
-        <v>21.76096868549516</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>37.90085510855813</v>
       </c>
     </row>
     <row r="96">
@@ -2665,15 +2190,10 @@
         <v>58.001347594749</v>
       </c>
       <c r="D96">
-        <v>4.420739698242429</v>
+        <v>9.523476068765097</v>
       </c>
       <c r="E96">
-        <v>48.47787152598391</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>53.58060789650659</v>
       </c>
     </row>
     <row r="97">
@@ -2689,15 +2209,10 @@
         <v>50.13088314762606</v>
       </c>
       <c r="D97">
-        <v>23.45517140413199</v>
+        <v>31.98827013782962</v>
       </c>
       <c r="E97">
-        <v>18.14261300979643</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>26.67571174349406</v>
       </c>
     </row>
     <row r="98">
@@ -2713,15 +2228,10 @@
         <v>46.82956421993386</v>
       </c>
       <c r="D98">
-        <v>19.18403974348698</v>
+        <v>26.51396420839526</v>
       </c>
       <c r="E98">
-        <v>20.31560001153859</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>27.64552447644686</v>
       </c>
     </row>
     <row r="99">
@@ -2737,15 +2247,10 @@
         <v>58.43791101434878</v>
       </c>
       <c r="D99">
-        <v>21.77858129686974</v>
+        <v>34.3832504451403</v>
       </c>
       <c r="E99">
-        <v>24.05466056920849</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>36.65932971747905</v>
       </c>
     </row>
     <row r="100">
@@ -2761,15 +2266,10 @@
         <v>46.29749192223422</v>
       </c>
       <c r="D100">
-        <v>15.59363900195402</v>
+        <v>22.50289469054428</v>
       </c>
       <c r="E100">
-        <v>23.79459723168994</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>30.7038529202802</v>
       </c>
     </row>
     <row r="101">
@@ -2785,15 +2285,10 @@
         <v>55.42374378219921</v>
       </c>
       <c r="D101">
-        <v>15.65177535737388</v>
+        <v>25.98752598752599</v>
       </c>
       <c r="E101">
-        <v>29.43621779467323</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>39.77196842482534</v>
       </c>
     </row>
   </sheetData>

--- a/sensitivity analysis/outputs/S4/S4_start_immunity.xlsx
+++ b/sensitivity analysis/outputs/S4/S4_start_immunity.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,11 @@
           <t>immunity_by_vaccination</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -409,6 +414,11 @@
       <c r="E2">
         <v>44.81348600949811</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -428,6 +438,11 @@
       <c r="E3">
         <v>30.0654685149135</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -447,6 +462,11 @@
       <c r="E4">
         <v>50.77993241202797</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -466,6 +486,11 @@
       <c r="E5">
         <v>27.92224978552357</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -485,6 +510,11 @@
       <c r="E6">
         <v>40.79653466175498</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +534,11 @@
       <c r="E7">
         <v>46.09740784647847</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,6 +558,11 @@
       <c r="E8">
         <v>43.17335152827879</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -542,6 +582,11 @@
       <c r="E9">
         <v>41.2609406211385</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -561,6 +606,11 @@
       <c r="E10">
         <v>33.06171551933834</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -580,6 +630,11 @@
       <c r="E11">
         <v>49.06748884478831</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -599,6 +654,11 @@
       <c r="E12">
         <v>46.7876473795855</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -618,6 +678,11 @@
       <c r="E13">
         <v>31.11422338968807</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -637,6 +702,11 @@
       <c r="E14">
         <v>30.78172456414869</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -656,6 +726,11 @@
       <c r="E15">
         <v>32.18610812380206</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -675,6 +750,11 @@
       <c r="E16">
         <v>32.0718929433087</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -694,6 +774,11 @@
       <c r="E17">
         <v>40.6322624770084</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -713,6 +798,11 @@
       <c r="E18">
         <v>37.99377977496323</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -732,6 +822,11 @@
       <c r="E19">
         <v>33.77182577149271</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -751,6 +846,11 @@
       <c r="E20">
         <v>49.45006792033143</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -770,6 +870,11 @@
       <c r="E21">
         <v>30.78858754939254</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -789,6 +894,11 @@
       <c r="E22">
         <v>46.92851349613549</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -808,6 +918,11 @@
       <c r="E23">
         <v>34.90912819560169</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -827,6 +942,11 @@
       <c r="E24">
         <v>34.63768001177167</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -846,6 +966,11 @@
       <c r="E25">
         <v>28.70112580140914</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -865,6 +990,11 @@
       <c r="E26">
         <v>33.21704261938344</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -884,6 +1014,11 @@
       <c r="E27">
         <v>21.20765562758635</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -903,6 +1038,11 @@
       <c r="E28">
         <v>35.84053573000205</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -922,6 +1062,11 @@
       <c r="E29">
         <v>63.83578632724505</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -941,6 +1086,11 @@
       <c r="E30">
         <v>31.00558813095128</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -960,6 +1110,11 @@
       <c r="E31">
         <v>39.03882325982024</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -979,6 +1134,11 @@
       <c r="E32">
         <v>28.58253284614246</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -998,6 +1158,11 @@
       <c r="E33">
         <v>46.46831438225764</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1017,6 +1182,11 @@
       <c r="E34">
         <v>32.06924299347569</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1036,6 +1206,11 @@
       <c r="E35">
         <v>41.07807180373145</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1055,6 +1230,11 @@
       <c r="E36">
         <v>32.12846477458199</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1074,6 +1254,11 @@
       <c r="E37">
         <v>31.79724460889633</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1093,6 +1278,11 @@
       <c r="E38">
         <v>31.97828762071892</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1112,6 +1302,11 @@
       <c r="E39">
         <v>32.0937866595111</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1131,6 +1326,11 @@
       <c r="E40">
         <v>43.89165444035245</v>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1150,6 +1350,11 @@
       <c r="E41">
         <v>36.9604797000524</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1169,6 +1374,11 @@
       <c r="E42">
         <v>41.35631955539282</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1188,6 +1398,11 @@
       <c r="E43">
         <v>33.9806992108897</v>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1207,6 +1422,11 @@
       <c r="E44">
         <v>26.60163104363588</v>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1226,6 +1446,11 @@
       <c r="E45">
         <v>47.74323695337087</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1245,6 +1470,11 @@
       <c r="E46">
         <v>47.97383261996821</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1264,6 +1494,11 @@
       <c r="E47">
         <v>34.77326636654423</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1283,6 +1518,11 @@
       <c r="E48">
         <v>21.76915728420372</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1302,6 +1542,11 @@
       <c r="E49">
         <v>53.76752517342644</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1321,6 +1566,11 @@
       <c r="E50">
         <v>30.27015658595338</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1340,6 +1590,11 @@
       <c r="E51">
         <v>39.91597965045125</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1359,6 +1614,11 @@
       <c r="E52">
         <v>31.39514712034604</v>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1378,6 +1638,11 @@
       <c r="E53">
         <v>39.69989399621305</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1397,6 +1662,11 @@
       <c r="E54">
         <v>36.82993955801849</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1416,6 +1686,11 @@
       <c r="E55">
         <v>36.50780809267105</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1435,6 +1710,11 @@
       <c r="E56">
         <v>41.34161779800483</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1454,6 +1734,11 @@
       <c r="E57">
         <v>52.37308612056123</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1473,6 +1758,11 @@
       <c r="E58">
         <v>46.89408129183581</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1492,6 +1782,11 @@
       <c r="E59">
         <v>36.16728376256484</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1511,6 +1806,11 @@
       <c r="E60">
         <v>37.86595008213377</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1530,6 +1830,11 @@
       <c r="E61">
         <v>36.27618982410679</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1549,6 +1854,11 @@
       <c r="E62">
         <v>37.81373061144841</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1568,6 +1878,11 @@
       <c r="E63">
         <v>29.95244885123448</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1587,6 +1902,11 @@
       <c r="E64">
         <v>43.88615948623971</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1606,6 +1926,11 @@
       <c r="E65">
         <v>35.69699860637994</v>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1625,6 +1950,11 @@
       <c r="E66">
         <v>43.12339610649641</v>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1644,6 +1974,11 @@
       <c r="E67">
         <v>37.12486576072786</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1663,6 +1998,11 @@
       <c r="E68">
         <v>18.12761394193073</v>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1682,6 +2022,11 @@
       <c r="E69">
         <v>64.79473456966376</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1701,6 +2046,11 @@
       <c r="E70">
         <v>45.92739951885694</v>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1720,6 +2070,11 @@
       <c r="E71">
         <v>37.01739049330526</v>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1739,6 +2094,11 @@
       <c r="E72">
         <v>39.48197512902068</v>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1758,6 +2118,11 @@
       <c r="E73">
         <v>36.57940148876396</v>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1777,6 +2142,11 @@
       <c r="E74">
         <v>40.13299380995644</v>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1796,6 +2166,11 @@
       <c r="E75">
         <v>39.23294401805383</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1815,6 +2190,11 @@
       <c r="E76">
         <v>37.39774150673931</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1834,6 +2214,11 @@
       <c r="E77">
         <v>30.53125203004993</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1853,6 +2238,11 @@
       <c r="E78">
         <v>31.46269485028784</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1872,6 +2262,11 @@
       <c r="E79">
         <v>20.84422268367878</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1891,6 +2286,11 @@
       <c r="E80">
         <v>37.82348438543815</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1910,6 +2310,11 @@
       <c r="E81">
         <v>23.94870609522823</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1929,6 +2334,11 @@
       <c r="E82">
         <v>27.98096525845754</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1948,6 +2358,11 @@
       <c r="E83">
         <v>33.39447632148848</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1967,6 +2382,11 @@
       <c r="E84">
         <v>30.80185770807167</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1986,6 +2406,11 @@
       <c r="E85">
         <v>27.54284935920796</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2005,6 +2430,11 @@
       <c r="E86">
         <v>29.00844595841327</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2024,6 +2454,11 @@
       <c r="E87">
         <v>36.28217008326812</v>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2043,6 +2478,11 @@
       <c r="E88">
         <v>32.14653777985414</v>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2062,6 +2502,11 @@
       <c r="E89">
         <v>49.22071810619293</v>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2081,6 +2526,11 @@
       <c r="E90">
         <v>38.59024854812698</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2100,6 +2550,11 @@
       <c r="E91">
         <v>38.83971799583165</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2119,6 +2574,11 @@
       <c r="E92">
         <v>42.64900603502772</v>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2138,6 +2598,11 @@
       <c r="E93">
         <v>48.99556026978128</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2157,6 +2622,11 @@
       <c r="E94">
         <v>43.86128860418635</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2176,6 +2646,11 @@
       <c r="E95">
         <v>37.90085510855813</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2195,6 +2670,11 @@
       <c r="E96">
         <v>53.58060789650659</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2214,6 +2694,11 @@
       <c r="E97">
         <v>26.67571174349406</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2233,6 +2718,11 @@
       <c r="E98">
         <v>27.64552447644686</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2252,6 +2742,11 @@
       <c r="E99">
         <v>36.65932971747905</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2271,6 +2766,11 @@
       <c r="E100">
         <v>30.7038529202802</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2289,6 +2789,11 @@
       </c>
       <c r="E101">
         <v>39.77196842482534</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
       </c>
     </row>
   </sheetData>
